--- a/biology/Histoire de la zoologie et de la botanique/Robert_Fisher_Tomes/Robert_Fisher_Tomes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Fisher_Tomes/Robert_Fisher_Tomes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Fisher Tomes, (né le 4 août 1823, décédé le 10 juillet 1904) est un agriculteur et un zoologiste anglais.
 Tomes naît a Weston-on-Avon et s'installe comme agriculteur à Welford dans le Gloucestershire. Il devient un spécialiste des chauves-souris décrivant de nombreuses nouvelles espèces. Il rédige les chapitres consacrés aux insectivores et aux chiroptères dans la seconde édition de l'ouvrage History of Quadrupeds du zoologiste Thomas Bell.
@@ -513,7 +525,9 @@
           <t>Éléments de bibliographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Occurrence of the Fork-tailed Petrel in Warwickshire Zoologist, 8 : 2706-2707 (1850)
 On two species of bats inhabiting New Zealand. Proc. Zool. Soc. Lond., pp. 134–142 (1857)
